--- a/Data in Excel/Data.xlsx
+++ b/Data in Excel/Data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,23 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Omarr\Desktop\SistemasGerencialesCubo\Data in Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{2EC15393-7DA8-4881-B338-384A152BEDE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77230FB5-F89C-4421-B1F3-B199DF71BB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tmp621C" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="115" r:id="rId2"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="83" r:id="rId5"/>
+    <pivotCache cacheId="100" r:id="rId6"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" odcFile="C:\Users\Omarr\AppData\Local\Temp\tmp621C.odc" keepAlive="1" name="DESKTOP-V3R7F34 CuboFinal" type="5" refreshedVersion="8" background="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{E2BE9583-5B4E-46E1-B7D0-557361A44315}" odcFile="C:\Users\Omarr\Documents\Mis archivos de origen de datos\. CuboFinal Bike Stores.odc" keepAlive="1" name=". CuboFinal Bike Stores" description="BikeStoreData" type="5" refreshedVersion="8" background="1">
+    <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=CuboFinal;Data Source=.;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Bike Stores" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+  </connection>
+  <connection id="2" xr16:uid="{C3920FA4-F827-4E3B-96F7-7D358C674D75}" odcFile="C:\Users\Omarr\Documents\Mis archivos de origen de datos\. CuboFinal Bike Stores.odc" keepAlive="1" name=". CuboFinal Bike Stores1" type="5" refreshedVersion="8" background="1">
+    <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=CuboFinal;Data Source=.;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Bike Stores" commandType="1"/>
+    <olapPr sendLocale="1" rowDrillCount="1000"/>
+  </connection>
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" odcFile="C:\Users\Omarr\AppData\Local\Temp\tmp621C.odc" keepAlive="1" name="DESKTOP-V3R7F34 CuboFinal" type="5" refreshedVersion="8" background="1">
     <dbPr connection="Provider=MSOLAP.8;Integrated Security=SSPI;Persist Security Info=True;Initial Catalog=CuboFinal;Data Source=DESKTOP-V3R7F34;MDX Compatibility=1;Safety Options=2;MDX Missing Member Mode=Error;Update Isolation Level=2" command="Bike Stores" commandType="1"/>
     <olapPr sendLocale="1" rowDrillCount="1000"/>
   </connection>
@@ -32,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="38">
   <si>
     <t>Etiquetas de fila</t>
   </si>
@@ -99,11 +111,59 @@
   <si>
     <t>Road Bikes</t>
   </si>
+  <si>
+    <t>Calculo_Total_Ventas</t>
+  </si>
+  <si>
+    <t>Calculo_Total_Descuentos</t>
+  </si>
+  <si>
+    <t>Calculo_Productos_Vendidos</t>
+  </si>
+  <si>
+    <t>Calculo_Margen</t>
+  </si>
+  <si>
+    <t>Calculo_CostosTotales</t>
+  </si>
+  <si>
+    <t>Calculo_Cantidad_Total</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>Electra</t>
+  </si>
+  <si>
+    <t>Haro</t>
+  </si>
+  <si>
+    <t>Heller</t>
+  </si>
+  <si>
+    <t>Pure Cycles</t>
+  </si>
+  <si>
+    <t>Ritchey</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>Sun Bicycles</t>
+  </si>
+  <si>
+    <t>Surly</t>
+  </si>
+  <si>
+    <t>Trek</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,13 +647,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -652,9 +712,5256 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data.xlsx]Hoja2!TablaDinámica1</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculo_Total_Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2379763.3100000331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2367741.8300000336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>978901.42999999563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D4F9-493B-9002-D30E770D0814}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculo_Total_Descuentos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>243.24999999999486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192.50999999999658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.810000000000173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-D4F9-493B-9002-D30E770D0814}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculo_Productos_Vendidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D4F9-493B-9002-D30E770D0814}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculo_Margen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98928978361297637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95405151498294949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65437994099160701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D4F9-493B-9002-D30E770D0814}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculo_CostosTotales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25487.780000000021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108794.15000000027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338327.96999999875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15499.939999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D4F9-493B-9002-D30E770D0814}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculo_Cantidad_Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-D4F9-493B-9002-D30E770D0814}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="85360591"/>
+        <c:axId val="85362255"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85360591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85362255"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="85362255"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="85360591"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data.xlsx]Hoja2!TablaDinámica1</c:name>
+    <c:fmtId val="1"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculo_Total_Ventas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2379763.3100000331</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2367741.8300000336</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>978901.42999999563</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9765-4AF8-B291-7089F777EBC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculo_Total_Descuentos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$C$4:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>243.24999999999486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>192.50999999999658</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>61.810000000000173</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9765-4AF8-B291-7089F777EBC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculo_Productos_Vendidos</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$D$4:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9765-4AF8-B291-7089F777EBC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculo_Margen</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$E$4:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.98928978361297637</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.95405151498294949</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65437994099160701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9765-4AF8-B291-7089F777EBC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculo_CostosTotales</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$F$4:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>25487.780000000021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>108794.15000000027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>338327.96999999875</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15499.939999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9765-4AF8-B291-7089F777EBC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja2!$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Calculo_Cantidad_Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja2!$G$4:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1046</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3787</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8678</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9765-4AF8-B291-7089F777EBC1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="293212799"/>
+        <c:axId val="293231935"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="293212799"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293231935"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="293231935"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="293212799"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Data.xlsx]Hoja3!TablaDinámica2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19050">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Quantity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Electra</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Haro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Heller</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pure Cycles</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ritchey</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Strider</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sun Bicycles</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Surly</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Trek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5519</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6587-4162-A3BE-25C3CEAE0426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Objetivo KPICrecimientoModeloProducto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Electra</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Haro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Heller</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pure Cycles</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ritchey</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Strider</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sun Bicycles</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Surly</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Trek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$C$2:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>261892.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22187</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6657.2000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6652.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2217.6000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6659.4000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51030.100000000006</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55477.4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>299637.80000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6587-4162-A3BE-25C3CEAE0426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Estado KPICrecimientoModeloProducto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Electra</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Haro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Heller</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pure Cycles</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ritchey</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Strider</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sun Bicycles</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Surly</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Trek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6587-4162-A3BE-25C3CEAE0426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja3!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tendencia KPICrecimientoModeloProducto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja3!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Electra</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Haro</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Heller</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Pure Cycles</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ritchey</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Strider</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Sun Bicycles</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Surly</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Trek</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja3!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6587-4162-A3BE-25C3CEAE0426}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1038224</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6142C01-712B-0F64-DD87-E3FC56FD2EF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1200150</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>33336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B69FF4-7F1B-F5EA-7FB4-39B87C8078EB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>952499</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84041E9C-27E3-8BBE-0619-02AF982F120C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" saveData="0" refreshedBy="Omar Rodriguez" refreshedDate="44886.422230555552" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1">
-  <cacheSource type="external" connectionId="1"/>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Omar Rodriguez" refreshedDate="44886.422230555552" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{00000000-000A-0000-FFFF-FFFF73000000}">
+  <cacheSource type="external" connectionId="3"/>
   <cacheFields count="9">
     <cacheField name="[Products].[Model Year].[Model Year]" caption="Model Year" numFmtId="0" hierarchy="35" level="1">
       <sharedItems count="4">
@@ -895,8 +6202,448 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Omar Rodriguez" refreshedDate="44886.425802430553" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{149AA230-0093-458F-B389-DD87F9FB58FB}">
+  <cacheSource type="external" connectionId="1"/>
+  <cacheFields count="8">
+    <cacheField name="[Measures].[Calculo_Total_Ventas]" caption="Calculo_Total_Ventas" numFmtId="0" hierarchy="88" level="32767"/>
+    <cacheField name="[Measures].[Calculo_Total_Descuentos]" caption="Calculo_Total_Descuentos" numFmtId="0" hierarchy="87" level="32767"/>
+    <cacheField name="[Measures].[Calculo_Productos_Vendidos]" caption="Calculo_Productos_Vendidos" numFmtId="0" hierarchy="84" level="32767"/>
+    <cacheField name="[Measures].[Calculo_Margen]" caption="Calculo_Margen" numFmtId="0" hierarchy="85" level="32767"/>
+    <cacheField name="[Measures].[Calculo_CostosTotales]" caption="Calculo_CostosTotales" numFmtId="0" hierarchy="89" level="32767"/>
+    <cacheField name="[Measures].[Calculo_Cantidad_Total]" caption="Calculo_Cantidad_Total" numFmtId="0" hierarchy="86" level="32767"/>
+    <cacheField name="[Products].[Model Year].[Model Year]" caption="Model Year" numFmtId="0" hierarchy="35" level="1">
+      <sharedItems count="4">
+        <s v="[Products].[Model Year].&amp;[2016]" c="2016"/>
+        <s v="[Products].[Model Year].&amp;[2017]" c="2017"/>
+        <s v="[Products].[Model Year].&amp;[2018]" c="2018"/>
+        <s v="[Products].[Model Year].&amp;[2019]" c="2019"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="[Products].[Product Name].[Product Name]" caption="Product Name" numFmtId="0" hierarchy="37" level="1">
+      <sharedItems count="6">
+        <s v="[Products].[Product Name].&amp;[Trek Checkpoint ALR 4 Women's - 2019]" c="Trek Checkpoint ALR 4 Women's - 2019"/>
+        <s v="[Products].[Product Name].&amp;[Trek Checkpoint ALR 5 - 2019]" c="Trek Checkpoint ALR 5 - 2019"/>
+        <s v="[Products].[Product Name].&amp;[Trek Checkpoint ALR 5 Women's - 2019]" c="Trek Checkpoint ALR 5 Women's - 2019"/>
+        <s v="[Products].[Product Name].&amp;[Trek Checkpoint ALR Frameset - 2019]" c="Trek Checkpoint ALR Frameset - 2019"/>
+        <s v="[Products].[Product Name].&amp;[Trek Checkpoint SL 5 Women's - 2019]" c="Trek Checkpoint SL 5 Women's - 2019"/>
+        <s v="[Products].[Product Name].&amp;[Trek Checkpoint SL 6 - 2019]" c="Trek Checkpoint SL 6 - 2019"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="98">
+    <cacheHierarchy uniqueName="[Brands].[Brand Id]" caption="Brand Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Brands].[Brand Id].[All]" allUniqueName="[Brands].[Brand Id].[All]" dimensionUniqueName="[Brands]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Brands].[Brand Name]" caption="Brand Name" attribute="1" defaultMemberUniqueName="[Brands].[Brand Name].[All]" allUniqueName="[Brands].[Brand Name].[All]" dimensionUniqueName="[Brands]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Categories].[Category Id]" caption="Category Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Categories].[Category Id].[All]" allUniqueName="[Categories].[Category Id].[All]" dimensionUniqueName="[Categories]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Categories].[Category Name]" caption="Category Name" attribute="1" defaultMemberUniqueName="[Categories].[Category Name].[All]" allUniqueName="[Categories].[Category Name].[All]" dimensionUniqueName="[Categories]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Customers].[City].[All]" allUniqueName="[Customers].[City].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Customers].[Customer Id].[All]" allUniqueName="[Customers].[Customer Id].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[Email]" caption="Email" attribute="1" defaultMemberUniqueName="[Customers].[Email].[All]" allUniqueName="[Customers].[Email].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[First Name]" caption="First Name" attribute="1" defaultMemberUniqueName="[Customers].[First Name].[All]" allUniqueName="[Customers].[First Name].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[Last Name]" caption="Last Name" attribute="1" defaultMemberUniqueName="[Customers].[Last Name].[All]" allUniqueName="[Customers].[Last Name].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[Phone]" caption="Phone" attribute="1" defaultMemberUniqueName="[Customers].[Phone].[All]" allUniqueName="[Customers].[Phone].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[State]" caption="State" attribute="1" defaultMemberUniqueName="[Customers].[State].[All]" allUniqueName="[Customers].[State].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[Street]" caption="Street" attribute="1" defaultMemberUniqueName="[Customers].[Street].[All]" allUniqueName="[Customers].[Street].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[Zip Code]" caption="Zip Code" attribute="1" defaultMemberUniqueName="[Customers].[Zip Code].[All]" allUniqueName="[Customers].[Zip Code].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders].[Order Date]" caption="Order Date" attribute="1" defaultMemberUniqueName="[Orders].[Order Date].[All]" allUniqueName="[Orders].[Order Date].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders].[Order Id]" caption="Order Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Orders].[Order Id].[All]" allUniqueName="[Orders].[Order Id].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders].[Order Status]" caption="Order Status" attribute="1" defaultMemberUniqueName="[Orders].[Order Status].[All]" allUniqueName="[Orders].[Order Status].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders].[Required Date]" caption="Required Date" attribute="1" defaultMemberUniqueName="[Orders].[Required Date].[All]" allUniqueName="[Orders].[Required Date].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders].[Shipped Date]" caption="Shipped Date" attribute="1" defaultMemberUniqueName="[Orders].[Shipped Date].[All]" allUniqueName="[Orders].[Shipped Date].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[City]" caption="Orders - Staff - Store.City" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[City].[All]" allUniqueName="[Orders - Staff - Store].[City].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[Email]" caption="Orders - Staff - Store.Email" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[Email].[All]" allUniqueName="[Orders - Staff - Store].[Email].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[Phone]" caption="Orders - Staff - Store.Phone" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[Phone].[All]" allUniqueName="[Orders - Staff - Store].[Phone].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[State]" caption="Orders - Staff - Store.State" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[State].[All]" allUniqueName="[Orders - Staff - Store].[State].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[Store Id]" caption="Orders - Staff - Store.Store Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[Store Id].[All]" allUniqueName="[Orders - Staff - Store].[Store Id].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[Store Name]" caption="Orders - Staff - Store.Store Name" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[Store Name].[All]" allUniqueName="[Orders - Staff - Store].[Store Name].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[Street]" caption="Orders - Staff - Store.Street" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[Street].[All]" allUniqueName="[Orders - Staff - Store].[Street].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[Zip Code]" caption="Orders - Staff - Store.Zip Code" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[Zip Code].[All]" allUniqueName="[Orders - Staff - Store].[Zip Code].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[City]" caption="Orders - Store.City" attribute="1" defaultMemberUniqueName="[Orders - Store].[City].[All]" allUniqueName="[Orders - Store].[City].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[Email]" caption="Orders - Store.Email" attribute="1" defaultMemberUniqueName="[Orders - Store].[Email].[All]" allUniqueName="[Orders - Store].[Email].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[Phone]" caption="Orders - Store.Phone" attribute="1" defaultMemberUniqueName="[Orders - Store].[Phone].[All]" allUniqueName="[Orders - Store].[Phone].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[State]" caption="Orders - Store.State" attribute="1" defaultMemberUniqueName="[Orders - Store].[State].[All]" allUniqueName="[Orders - Store].[State].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[Store Id]" caption="Orders - Store.Store Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Orders - Store].[Store Id].[All]" allUniqueName="[Orders - Store].[Store Id].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[Store Name]" caption="Orders - Store.Store Name" attribute="1" defaultMemberUniqueName="[Orders - Store].[Store Name].[All]" allUniqueName="[Orders - Store].[Store Name].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[Street]" caption="Orders - Store.Street" attribute="1" defaultMemberUniqueName="[Orders - Store].[Street].[All]" allUniqueName="[Orders - Store].[Street].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[Zip Code]" caption="Orders - Store.Zip Code" attribute="1" defaultMemberUniqueName="[Orders - Store].[Zip Code].[All]" allUniqueName="[Orders - Store].[Zip Code].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[List Price]" caption="List Price" attribute="1" defaultMemberUniqueName="[Products].[List Price].[All]" allUniqueName="[Products].[List Price].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Model Year]" caption="Model Year" attribute="1" defaultMemberUniqueName="[Products].[Model Year].[All]" allUniqueName="[Products].[Model Year].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="6"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Products].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Products].[Product Id].[All]" allUniqueName="[Products].[Product Id].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Name]" caption="Product Name" attribute="1" defaultMemberUniqueName="[Products].[Product Name].[All]" allUniqueName="[Products].[Product Name].[All]" dimensionUniqueName="[Products]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="7"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Staffs].[Active]" caption="Active" attribute="1" defaultMemberUniqueName="[Staffs].[Active].[All]" allUniqueName="[Staffs].[Active].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs].[Email]" caption="Email" attribute="1" defaultMemberUniqueName="[Staffs].[Email].[All]" allUniqueName="[Staffs].[Email].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs].[First Name]" caption="First Name" attribute="1" defaultMemberUniqueName="[Staffs].[First Name].[All]" allUniqueName="[Staffs].[First Name].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs].[Last Name]" caption="Last Name" attribute="1" defaultMemberUniqueName="[Staffs].[Last Name].[All]" allUniqueName="[Staffs].[Last Name].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs].[Manager Id]" caption="Manager Id" defaultMemberUniqueName="[Staffs].[Manager Id].[All]" allUniqueName="[Staffs].[Manager Id].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="1"/>
+    <cacheHierarchy uniqueName="[Staffs].[Phone]" caption="Phone" attribute="1" defaultMemberUniqueName="[Staffs].[Phone].[All]" allUniqueName="[Staffs].[Phone].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[City]" caption="Staffs - Store.City" attribute="1" defaultMemberUniqueName="[Staffs - Store].[City].[All]" allUniqueName="[Staffs - Store].[City].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[Email]" caption="Staffs - Store.Email" attribute="1" defaultMemberUniqueName="[Staffs - Store].[Email].[All]" allUniqueName="[Staffs - Store].[Email].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[Phone]" caption="Staffs - Store.Phone" attribute="1" defaultMemberUniqueName="[Staffs - Store].[Phone].[All]" allUniqueName="[Staffs - Store].[Phone].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[State]" caption="Staffs - Store.State" attribute="1" defaultMemberUniqueName="[Staffs - Store].[State].[All]" allUniqueName="[Staffs - Store].[State].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[Store Id]" caption="Staffs - Store.Store Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Staffs - Store].[Store Id].[All]" allUniqueName="[Staffs - Store].[Store Id].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[Store Name]" caption="Staffs - Store.Store Name" attribute="1" defaultMemberUniqueName="[Staffs - Store].[Store Name].[All]" allUniqueName="[Staffs - Store].[Store Name].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[Street]" caption="Staffs - Store.Street" attribute="1" defaultMemberUniqueName="[Staffs - Store].[Street].[All]" allUniqueName="[Staffs - Store].[Street].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[Zip Code]" caption="Staffs - Store.Zip Code" attribute="1" defaultMemberUniqueName="[Staffs - Store].[Zip Code].[All]" allUniqueName="[Staffs - Store].[Zip Code].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[City]" caption="Stores.City" attribute="1" defaultMemberUniqueName="[Stores].[City].[All]" allUniqueName="[Stores].[City].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[Email]" caption="Stores.Email" attribute="1" defaultMemberUniqueName="[Stores].[Email].[All]" allUniqueName="[Stores].[Email].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[Phone]" caption="Stores.Phone" attribute="1" defaultMemberUniqueName="[Stores].[Phone].[All]" allUniqueName="[Stores].[Phone].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[State]" caption="Stores.State" attribute="1" defaultMemberUniqueName="[Stores].[State].[All]" allUniqueName="[Stores].[State].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[Store Id]" caption="Stores.Store Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Stores].[Store Id].[All]" allUniqueName="[Stores].[Store Id].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[Store Name]" caption="Stores.Store Name" attribute="1" defaultMemberUniqueName="[Stores].[Store Name].[All]" allUniqueName="[Stores].[Store Name].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[Street]" caption="Stores.Street" attribute="1" defaultMemberUniqueName="[Stores].[Street].[All]" allUniqueName="[Stores].[Street].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[Zip Code]" caption="Stores.Zip Code" attribute="1" defaultMemberUniqueName="[Stores].[Zip Code].[All]" allUniqueName="[Stores].[Zip Code].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders].[Customer Id]" caption="Customer Id" attribute="1" defaultMemberUniqueName="[Orders].[Customer Id].[All]" allUniqueName="[Orders].[Customer Id].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Orders].[Staff Id]" caption="Staff Id" attribute="1" defaultMemberUniqueName="[Orders].[Staff Id].[All]" allUniqueName="[Orders].[Staff Id].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Orders].[Store Id]" caption="Store Id" attribute="1" defaultMemberUniqueName="[Orders].[Store Id].[All]" allUniqueName="[Orders].[Store Id].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Products].[Brand Id]" caption="Brand Id" attribute="1" defaultMemberUniqueName="[Products].[Brand Id].[All]" allUniqueName="[Products].[Brand Id].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Products].[Category Id]" caption="Category Id" attribute="1" defaultMemberUniqueName="[Products].[Category Id].[All]" allUniqueName="[Products].[Category Id].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Staffs].[Staff Id]" caption="Staff Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Staffs].[Staff Id].[All]" allUniqueName="[Staffs].[Staff Id].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Staffs].[Store Id]" caption="Store Id" attribute="1" defaultMemberUniqueName="[Staffs].[Store Id].[All]" allUniqueName="[Staffs].[Store Id].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Model Year]" caption="Model Year" measure="1" displayFolder="" measureGroup="Products" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[List Price]" caption="List Price" measure="1" displayFolder="" measureGroup="Products" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Products Count]" caption="Products Count" measure="1" displayFolder="" measureGroup="Products" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Stocks" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Stocks Count]" caption="Stocks Count" measure="1" displayFolder="" measureGroup="Stocks" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity - Order Items]" caption="Quantity - Order Items" measure="1" displayFolder="" measureGroup="Order Items" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[List Price - Order Items]" caption="List Price - Order Items" measure="1" displayFolder="" measureGroup="Order Items" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Discount]" caption="Discount" measure="1" displayFolder="" measureGroup="Order Items" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Order Items Count]" caption="Order Items Count" measure="1" displayFolder="" measureGroup="Order Items" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Customers Count]" caption="Customers Count" measure="1" displayFolder="" measureGroup="Customers" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active]" caption="Active" measure="1" displayFolder="" measureGroup="Staffs" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Staffs Count]" caption="Staffs Count" measure="1" displayFolder="" measureGroup="Staffs" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Order Status]" caption="Order Status" measure="1" displayFolder="" measureGroup="Orders" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Orders Count]" caption="Orders Count" measure="1" displayFolder="" measureGroup="Orders" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Stores Count]" caption="Stores Count" measure="1" displayFolder="" measureGroup="Stores" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Categories Count]" caption="Categories Count" measure="1" displayFolder="" measureGroup="Categories" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Brands Count]" caption="Brands Count" measure="1" displayFolder="" measureGroup="Brands" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Calculo_Productos_Vendidos]" caption="Calculo_Productos_Vendidos" measure="1" displayFolder="" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Calculo_Margen]" caption="Calculo_Margen" measure="1" displayFolder="" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Calculo_Cantidad_Total]" caption="Calculo_Cantidad_Total" measure="1" displayFolder="" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="5"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Calculo_Total_Descuentos]" caption="Calculo_Total_Descuentos" measure="1" displayFolder="" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Calculo_Total_Ventas]" caption="Calculo_Total_Ventas" measure="1" displayFolder="" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Calculo_CostosTotales]" caption="Calculo_CostosTotales" measure="1" displayFolder="" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[___KPICrecimientoVentas Value]" caption="KPICrecimientoVentas" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[KPICrecimientoVentas Goal]" caption="KPICrecimientoVentas (Objetivo)" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[KPICrecimientoVentas Status]" caption="KPICrecimientoVentas (Estado)" measure="1" iconSet="10" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[KPICrecimientoVentas Trend]" caption="KPICrecimientoVentas (Tendencia)" measure="1" iconSet="3" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___KPICrecimientoModeloProducto Value]" caption="KPICrecimientoModeloProducto" measure="1" displayFolder="" measureGroup="Products" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[KPICrecimientoModeloProducto Goal]" caption="KPICrecimientoModeloProducto (Objetivo)" measure="1" displayFolder="" measureGroup="Products" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[KPICrecimientoModeloProducto Status]" caption="KPICrecimientoModeloProducto (Estado)" measure="1" iconSet="7" displayFolder="" measureGroup="Products" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[KPICrecimientoModeloProducto Trend]" caption="KPICrecimientoModeloProducto (Tendencia)" measure="1" iconSet="3" displayFolder="" measureGroup="Products" count="0" hidden="1"/>
+  </cacheHierarchies>
+  <kpis count="2">
+    <kpi uniqueName="KPICrecimientoVentas" caption="KPICrecimientoVentas" displayFolder="" parent="" value="[Measures].[Calculo_Total_Ventas]" goal="[Measures].[KPICrecimientoVentas Goal]" status="[Measures].[KPICrecimientoVentas Status]" trend="[Measures].[KPICrecimientoVentas Trend]" weight=""/>
+    <kpi uniqueName="KPICrecimientoModeloProducto" caption="KPICrecimientoModeloProducto" displayFolder="" parent="" value="[Measures].[Model Year]" goal="[Measures].[KPICrecimientoModeloProducto Goal]" status="[Measures].[KPICrecimientoModeloProducto Status]" trend="[Measures].[KPICrecimientoModeloProducto Trend]" weight=""/>
+  </kpis>
+  <dimensions count="11">
+    <dimension name="Brands" uniqueName="[Brands]" caption="Brands"/>
+    <dimension name="Categories" uniqueName="[Categories]" caption="Categories"/>
+    <dimension name="Customers" uniqueName="[Customers]" caption="Customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Orders" uniqueName="[Orders]" caption="Orders"/>
+    <dimension name="Orders - Staff - Store" uniqueName="[Orders - Staff - Store]" caption="Orders - Staff - Store"/>
+    <dimension name="Orders - Store" uniqueName="[Orders - Store]" caption="Orders - Store"/>
+    <dimension name="Products" uniqueName="[Products]" caption="Products"/>
+    <dimension name="Staffs" uniqueName="[Staffs]" caption="Staffs"/>
+    <dimension name="Staffs - Store" uniqueName="[Staffs - Store]" caption="Staffs - Store"/>
+    <dimension name="Stores" uniqueName="[Stores]" caption="Stores"/>
+  </dimensions>
+  <measureGroups count="9">
+    <measureGroup name="Brands" caption="Brands"/>
+    <measureGroup name="Categories" caption="Categories"/>
+    <measureGroup name="Customers" caption="Customers"/>
+    <measureGroup name="Order Items" caption="Order Items"/>
+    <measureGroup name="Orders" caption="Orders"/>
+    <measureGroup name="Products" caption="Products"/>
+    <measureGroup name="Staffs" caption="Staffs"/>
+    <measureGroup name="Stocks" caption="Stocks"/>
+    <measureGroup name="Stores" caption="Stores"/>
+  </measureGroups>
+  <maps count="29">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="4"/>
+    <map measureGroup="3" dimension="5"/>
+    <map measureGroup="3" dimension="6"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="3" dimension="8"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="4"/>
+    <map measureGroup="4" dimension="8"/>
+    <map measureGroup="4" dimension="9"/>
+    <map measureGroup="4" dimension="10"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="8"/>
+    <map measureGroup="6" dimension="10"/>
+    <map measureGroup="7" dimension="0"/>
+    <map measureGroup="7" dimension="1"/>
+    <map measureGroup="7" dimension="7"/>
+    <map measureGroup="7" dimension="10"/>
+    <map measureGroup="8" dimension="5"/>
+    <map measureGroup="8" dimension="6"/>
+    <map measureGroup="8" dimension="9"/>
+    <map measureGroup="8" dimension="10"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" saveData="0" refreshedBy="Omar Rodriguez" refreshedDate="44886.427385763891" backgroundQuery="1" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="0" supportSubquery="1" supportAdvancedDrill="1" xr:uid="{90C7949A-EE5E-4A64-8F98-7BC6CFD2D761}">
+  <cacheSource type="external" connectionId="2"/>
+  <cacheFields count="5">
+    <cacheField name="[Measures].[Quantity]" caption="Quantity" numFmtId="0" hierarchy="70" level="32767"/>
+    <cacheField name="[Measures].[KPICrecimientoModeloProducto Goal]" caption="KPICrecimientoModeloProducto (Objetivo)" numFmtId="0" hierarchy="95" level="32767"/>
+    <cacheField name="[Measures].[KPICrecimientoModeloProducto Status]" caption="KPICrecimientoModeloProducto (Estado)" numFmtId="0" hierarchy="96" level="32767"/>
+    <cacheField name="[Measures].[KPICrecimientoModeloProducto Trend]" caption="KPICrecimientoModeloProducto (Tendencia)" numFmtId="0" hierarchy="97" level="32767"/>
+    <cacheField name="[Brands].[Brand Name].[Brand Name]" caption="Brand Name" numFmtId="0" hierarchy="1" level="1">
+      <sharedItems count="9">
+        <s v="[Brands].[Brand Name].&amp;[Electra]" c="Electra"/>
+        <s v="[Brands].[Brand Name].&amp;[Haro]" c="Haro"/>
+        <s v="[Brands].[Brand Name].&amp;[Heller]" c="Heller"/>
+        <s v="[Brands].[Brand Name].&amp;[Pure Cycles]" c="Pure Cycles"/>
+        <s v="[Brands].[Brand Name].&amp;[Ritchey]" c="Ritchey"/>
+        <s v="[Brands].[Brand Name].&amp;[Strider]" c="Strider"/>
+        <s v="[Brands].[Brand Name].&amp;[Sun Bicycles]" c="Sun Bicycles"/>
+        <s v="[Brands].[Brand Name].&amp;[Surly]" c="Surly"/>
+        <s v="[Brands].[Brand Name].&amp;[Trek]" c="Trek"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <cacheHierarchies count="98">
+    <cacheHierarchy uniqueName="[Brands].[Brand Id]" caption="Brand Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Brands].[Brand Id].[All]" allUniqueName="[Brands].[Brand Id].[All]" dimensionUniqueName="[Brands]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Brands].[Brand Name]" caption="Brand Name" attribute="1" defaultMemberUniqueName="[Brands].[Brand Name].[All]" allUniqueName="[Brands].[Brand Name].[All]" dimensionUniqueName="[Brands]" displayFolder="" count="2" unbalanced="0">
+      <fieldsUsage count="2">
+        <fieldUsage x="-1"/>
+        <fieldUsage x="4"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Categories].[Category Id]" caption="Category Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Categories].[Category Id].[All]" allUniqueName="[Categories].[Category Id].[All]" dimensionUniqueName="[Categories]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Categories].[Category Name]" caption="Category Name" attribute="1" defaultMemberUniqueName="[Categories].[Category Name].[All]" allUniqueName="[Categories].[Category Name].[All]" dimensionUniqueName="[Categories]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[City]" caption="City" attribute="1" defaultMemberUniqueName="[Customers].[City].[All]" allUniqueName="[Customers].[City].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[Customer Id]" caption="Customer Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Customers].[Customer Id].[All]" allUniqueName="[Customers].[Customer Id].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[Email]" caption="Email" attribute="1" defaultMemberUniqueName="[Customers].[Email].[All]" allUniqueName="[Customers].[Email].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[First Name]" caption="First Name" attribute="1" defaultMemberUniqueName="[Customers].[First Name].[All]" allUniqueName="[Customers].[First Name].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[Last Name]" caption="Last Name" attribute="1" defaultMemberUniqueName="[Customers].[Last Name].[All]" allUniqueName="[Customers].[Last Name].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[Phone]" caption="Phone" attribute="1" defaultMemberUniqueName="[Customers].[Phone].[All]" allUniqueName="[Customers].[Phone].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[State]" caption="State" attribute="1" defaultMemberUniqueName="[Customers].[State].[All]" allUniqueName="[Customers].[State].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[Street]" caption="Street" attribute="1" defaultMemberUniqueName="[Customers].[Street].[All]" allUniqueName="[Customers].[Street].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Customers].[Zip Code]" caption="Zip Code" attribute="1" defaultMemberUniqueName="[Customers].[Zip Code].[All]" allUniqueName="[Customers].[Zip Code].[All]" dimensionUniqueName="[Customers]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders].[Order Date]" caption="Order Date" attribute="1" defaultMemberUniqueName="[Orders].[Order Date].[All]" allUniqueName="[Orders].[Order Date].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders].[Order Id]" caption="Order Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Orders].[Order Id].[All]" allUniqueName="[Orders].[Order Id].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders].[Order Status]" caption="Order Status" attribute="1" defaultMemberUniqueName="[Orders].[Order Status].[All]" allUniqueName="[Orders].[Order Status].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders].[Required Date]" caption="Required Date" attribute="1" defaultMemberUniqueName="[Orders].[Required Date].[All]" allUniqueName="[Orders].[Required Date].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders].[Shipped Date]" caption="Shipped Date" attribute="1" defaultMemberUniqueName="[Orders].[Shipped Date].[All]" allUniqueName="[Orders].[Shipped Date].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[City]" caption="Orders - Staff - Store.City" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[City].[All]" allUniqueName="[Orders - Staff - Store].[City].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[Email]" caption="Orders - Staff - Store.Email" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[Email].[All]" allUniqueName="[Orders - Staff - Store].[Email].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[Phone]" caption="Orders - Staff - Store.Phone" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[Phone].[All]" allUniqueName="[Orders - Staff - Store].[Phone].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[State]" caption="Orders - Staff - Store.State" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[State].[All]" allUniqueName="[Orders - Staff - Store].[State].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[Store Id]" caption="Orders - Staff - Store.Store Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[Store Id].[All]" allUniqueName="[Orders - Staff - Store].[Store Id].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[Store Name]" caption="Orders - Staff - Store.Store Name" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[Store Name].[All]" allUniqueName="[Orders - Staff - Store].[Store Name].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[Street]" caption="Orders - Staff - Store.Street" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[Street].[All]" allUniqueName="[Orders - Staff - Store].[Street].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Staff - Store].[Zip Code]" caption="Orders - Staff - Store.Zip Code" attribute="1" defaultMemberUniqueName="[Orders - Staff - Store].[Zip Code].[All]" allUniqueName="[Orders - Staff - Store].[Zip Code].[All]" dimensionUniqueName="[Orders - Staff - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[City]" caption="Orders - Store.City" attribute="1" defaultMemberUniqueName="[Orders - Store].[City].[All]" allUniqueName="[Orders - Store].[City].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[Email]" caption="Orders - Store.Email" attribute="1" defaultMemberUniqueName="[Orders - Store].[Email].[All]" allUniqueName="[Orders - Store].[Email].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[Phone]" caption="Orders - Store.Phone" attribute="1" defaultMemberUniqueName="[Orders - Store].[Phone].[All]" allUniqueName="[Orders - Store].[Phone].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[State]" caption="Orders - Store.State" attribute="1" defaultMemberUniqueName="[Orders - Store].[State].[All]" allUniqueName="[Orders - Store].[State].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[Store Id]" caption="Orders - Store.Store Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Orders - Store].[Store Id].[All]" allUniqueName="[Orders - Store].[Store Id].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[Store Name]" caption="Orders - Store.Store Name" attribute="1" defaultMemberUniqueName="[Orders - Store].[Store Name].[All]" allUniqueName="[Orders - Store].[Store Name].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[Street]" caption="Orders - Store.Street" attribute="1" defaultMemberUniqueName="[Orders - Store].[Street].[All]" allUniqueName="[Orders - Store].[Street].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders - Store].[Zip Code]" caption="Orders - Store.Zip Code" attribute="1" defaultMemberUniqueName="[Orders - Store].[Zip Code].[All]" allUniqueName="[Orders - Store].[Zip Code].[All]" dimensionUniqueName="[Orders - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[List Price]" caption="List Price" attribute="1" defaultMemberUniqueName="[Products].[List Price].[All]" allUniqueName="[Products].[List Price].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Model Year]" caption="Model Year" attribute="1" defaultMemberUniqueName="[Products].[Model Year].[All]" allUniqueName="[Products].[Model Year].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Id]" caption="Product Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Products].[Product Id].[All]" allUniqueName="[Products].[Product Id].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Products].[Product Name]" caption="Product Name" attribute="1" defaultMemberUniqueName="[Products].[Product Name].[All]" allUniqueName="[Products].[Product Name].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs].[Active]" caption="Active" attribute="1" defaultMemberUniqueName="[Staffs].[Active].[All]" allUniqueName="[Staffs].[Active].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs].[Email]" caption="Email" attribute="1" defaultMemberUniqueName="[Staffs].[Email].[All]" allUniqueName="[Staffs].[Email].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs].[First Name]" caption="First Name" attribute="1" defaultMemberUniqueName="[Staffs].[First Name].[All]" allUniqueName="[Staffs].[First Name].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs].[Last Name]" caption="Last Name" attribute="1" defaultMemberUniqueName="[Staffs].[Last Name].[All]" allUniqueName="[Staffs].[Last Name].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs].[Manager Id]" caption="Manager Id" defaultMemberUniqueName="[Staffs].[Manager Id].[All]" allUniqueName="[Staffs].[Manager Id].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="1"/>
+    <cacheHierarchy uniqueName="[Staffs].[Phone]" caption="Phone" attribute="1" defaultMemberUniqueName="[Staffs].[Phone].[All]" allUniqueName="[Staffs].[Phone].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[City]" caption="Staffs - Store.City" attribute="1" defaultMemberUniqueName="[Staffs - Store].[City].[All]" allUniqueName="[Staffs - Store].[City].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[Email]" caption="Staffs - Store.Email" attribute="1" defaultMemberUniqueName="[Staffs - Store].[Email].[All]" allUniqueName="[Staffs - Store].[Email].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[Phone]" caption="Staffs - Store.Phone" attribute="1" defaultMemberUniqueName="[Staffs - Store].[Phone].[All]" allUniqueName="[Staffs - Store].[Phone].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[State]" caption="Staffs - Store.State" attribute="1" defaultMemberUniqueName="[Staffs - Store].[State].[All]" allUniqueName="[Staffs - Store].[State].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[Store Id]" caption="Staffs - Store.Store Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Staffs - Store].[Store Id].[All]" allUniqueName="[Staffs - Store].[Store Id].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[Store Name]" caption="Staffs - Store.Store Name" attribute="1" defaultMemberUniqueName="[Staffs - Store].[Store Name].[All]" allUniqueName="[Staffs - Store].[Store Name].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[Street]" caption="Staffs - Store.Street" attribute="1" defaultMemberUniqueName="[Staffs - Store].[Street].[All]" allUniqueName="[Staffs - Store].[Street].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Staffs - Store].[Zip Code]" caption="Staffs - Store.Zip Code" attribute="1" defaultMemberUniqueName="[Staffs - Store].[Zip Code].[All]" allUniqueName="[Staffs - Store].[Zip Code].[All]" dimensionUniqueName="[Staffs - Store]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[City]" caption="Stores.City" attribute="1" defaultMemberUniqueName="[Stores].[City].[All]" allUniqueName="[Stores].[City].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[Email]" caption="Stores.Email" attribute="1" defaultMemberUniqueName="[Stores].[Email].[All]" allUniqueName="[Stores].[Email].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[Phone]" caption="Stores.Phone" attribute="1" defaultMemberUniqueName="[Stores].[Phone].[All]" allUniqueName="[Stores].[Phone].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[State]" caption="Stores.State" attribute="1" defaultMemberUniqueName="[Stores].[State].[All]" allUniqueName="[Stores].[State].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[Store Id]" caption="Stores.Store Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Stores].[Store Id].[All]" allUniqueName="[Stores].[Store Id].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[Store Name]" caption="Stores.Store Name" attribute="1" defaultMemberUniqueName="[Stores].[Store Name].[All]" allUniqueName="[Stores].[Store Name].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[Street]" caption="Stores.Street" attribute="1" defaultMemberUniqueName="[Stores].[Street].[All]" allUniqueName="[Stores].[Street].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Stores].[Zip Code]" caption="Stores.Zip Code" attribute="1" defaultMemberUniqueName="[Stores].[Zip Code].[All]" allUniqueName="[Stores].[Zip Code].[All]" dimensionUniqueName="[Stores]" displayFolder="" count="0" unbalanced="0"/>
+    <cacheHierarchy uniqueName="[Orders].[Customer Id]" caption="Customer Id" attribute="1" defaultMemberUniqueName="[Orders].[Customer Id].[All]" allUniqueName="[Orders].[Customer Id].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Orders].[Staff Id]" caption="Staff Id" attribute="1" defaultMemberUniqueName="[Orders].[Staff Id].[All]" allUniqueName="[Orders].[Staff Id].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Orders].[Store Id]" caption="Store Id" attribute="1" defaultMemberUniqueName="[Orders].[Store Id].[All]" allUniqueName="[Orders].[Store Id].[All]" dimensionUniqueName="[Orders]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Products].[Brand Id]" caption="Brand Id" attribute="1" defaultMemberUniqueName="[Products].[Brand Id].[All]" allUniqueName="[Products].[Brand Id].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Products].[Category Id]" caption="Category Id" attribute="1" defaultMemberUniqueName="[Products].[Category Id].[All]" allUniqueName="[Products].[Category Id].[All]" dimensionUniqueName="[Products]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Staffs].[Staff Id]" caption="Staff Id" attribute="1" keyAttribute="1" defaultMemberUniqueName="[Staffs].[Staff Id].[All]" allUniqueName="[Staffs].[Staff Id].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Staffs].[Store Id]" caption="Store Id" attribute="1" defaultMemberUniqueName="[Staffs].[Store Id].[All]" allUniqueName="[Staffs].[Store Id].[All]" dimensionUniqueName="[Staffs]" displayFolder="" count="0" unbalanced="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[Model Year]" caption="Model Year" measure="1" displayFolder="" measureGroup="Products" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[List Price]" caption="List Price" measure="1" displayFolder="" measureGroup="Products" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Products Count]" caption="Products Count" measure="1" displayFolder="" measureGroup="Products" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity]" caption="Quantity" measure="1" displayFolder="" measureGroup="Stocks" count="0" oneField="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="0"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[Stocks Count]" caption="Stocks Count" measure="1" displayFolder="" measureGroup="Stocks" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Quantity - Order Items]" caption="Quantity - Order Items" measure="1" displayFolder="" measureGroup="Order Items" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[List Price - Order Items]" caption="List Price - Order Items" measure="1" displayFolder="" measureGroup="Order Items" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Discount]" caption="Discount" measure="1" displayFolder="" measureGroup="Order Items" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Order Items Count]" caption="Order Items Count" measure="1" displayFolder="" measureGroup="Order Items" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Customers Count]" caption="Customers Count" measure="1" displayFolder="" measureGroup="Customers" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Active]" caption="Active" measure="1" displayFolder="" measureGroup="Staffs" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Staffs Count]" caption="Staffs Count" measure="1" displayFolder="" measureGroup="Staffs" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Order Status]" caption="Order Status" measure="1" displayFolder="" measureGroup="Orders" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Orders Count]" caption="Orders Count" measure="1" displayFolder="" measureGroup="Orders" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Stores Count]" caption="Stores Count" measure="1" displayFolder="" measureGroup="Stores" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Categories Count]" caption="Categories Count" measure="1" displayFolder="" measureGroup="Categories" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Brands Count]" caption="Brands Count" measure="1" displayFolder="" measureGroup="Brands" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Calculo_Productos_Vendidos]" caption="Calculo_Productos_Vendidos" measure="1" displayFolder="" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Calculo_Margen]" caption="Calculo_Margen" measure="1" displayFolder="" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Calculo_Cantidad_Total]" caption="Calculo_Cantidad_Total" measure="1" displayFolder="" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Calculo_Total_Descuentos]" caption="Calculo_Total_Descuentos" measure="1" displayFolder="" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Calculo_Total_Ventas]" caption="Calculo_Total_Ventas" measure="1" displayFolder="" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[Calculo_CostosTotales]" caption="Calculo_CostosTotales" measure="1" displayFolder="" count="0"/>
+    <cacheHierarchy uniqueName="[Measures].[___KPICrecimientoVentas Value]" caption="KPICrecimientoVentas" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[KPICrecimientoVentas Goal]" caption="KPICrecimientoVentas (Objetivo)" measure="1" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[KPICrecimientoVentas Status]" caption="KPICrecimientoVentas (Estado)" measure="1" iconSet="10" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[KPICrecimientoVentas Trend]" caption="KPICrecimientoVentas (Tendencia)" measure="1" iconSet="3" displayFolder="" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[___KPICrecimientoModeloProducto Value]" caption="KPICrecimientoModeloProducto" measure="1" displayFolder="" measureGroup="Products" count="0" hidden="1"/>
+    <cacheHierarchy uniqueName="[Measures].[KPICrecimientoModeloProducto Goal]" caption="KPICrecimientoModeloProducto (Objetivo)" measure="1" displayFolder="" measureGroup="Products" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="1"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[KPICrecimientoModeloProducto Status]" caption="KPICrecimientoModeloProducto (Estado)" measure="1" iconSet="7" displayFolder="" measureGroup="Products" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="2"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+    <cacheHierarchy uniqueName="[Measures].[KPICrecimientoModeloProducto Trend]" caption="KPICrecimientoModeloProducto (Tendencia)" measure="1" iconSet="3" displayFolder="" measureGroup="Products" count="0" oneField="1" hidden="1">
+      <fieldsUsage count="1">
+        <fieldUsage x="3"/>
+      </fieldsUsage>
+    </cacheHierarchy>
+  </cacheHierarchies>
+  <kpis count="2">
+    <kpi uniqueName="KPICrecimientoVentas" caption="KPICrecimientoVentas" displayFolder="" parent="" value="[Measures].[Calculo_Total_Ventas]" goal="[Measures].[KPICrecimientoVentas Goal]" status="[Measures].[KPICrecimientoVentas Status]" trend="[Measures].[KPICrecimientoVentas Trend]" weight=""/>
+    <kpi uniqueName="KPICrecimientoModeloProducto" caption="KPICrecimientoModeloProducto" displayFolder="" parent="" value="[Measures].[Model Year]" goal="[Measures].[KPICrecimientoModeloProducto Goal]" status="[Measures].[KPICrecimientoModeloProducto Status]" trend="[Measures].[KPICrecimientoModeloProducto Trend]" weight=""/>
+  </kpis>
+  <dimensions count="11">
+    <dimension name="Brands" uniqueName="[Brands]" caption="Brands"/>
+    <dimension name="Categories" uniqueName="[Categories]" caption="Categories"/>
+    <dimension name="Customers" uniqueName="[Customers]" caption="Customers"/>
+    <dimension measure="1" name="Measures" uniqueName="[Measures]" caption="Measures"/>
+    <dimension name="Orders" uniqueName="[Orders]" caption="Orders"/>
+    <dimension name="Orders - Staff - Store" uniqueName="[Orders - Staff - Store]" caption="Orders - Staff - Store"/>
+    <dimension name="Orders - Store" uniqueName="[Orders - Store]" caption="Orders - Store"/>
+    <dimension name="Products" uniqueName="[Products]" caption="Products"/>
+    <dimension name="Staffs" uniqueName="[Staffs]" caption="Staffs"/>
+    <dimension name="Staffs - Store" uniqueName="[Staffs - Store]" caption="Staffs - Store"/>
+    <dimension name="Stores" uniqueName="[Stores]" caption="Stores"/>
+  </dimensions>
+  <measureGroups count="9">
+    <measureGroup name="Brands" caption="Brands"/>
+    <measureGroup name="Categories" caption="Categories"/>
+    <measureGroup name="Customers" caption="Customers"/>
+    <measureGroup name="Order Items" caption="Order Items"/>
+    <measureGroup name="Orders" caption="Orders"/>
+    <measureGroup name="Products" caption="Products"/>
+    <measureGroup name="Staffs" caption="Staffs"/>
+    <measureGroup name="Stocks" caption="Stocks"/>
+    <measureGroup name="Stores" caption="Stores"/>
+  </measureGroups>
+  <maps count="29">
+    <map measureGroup="0" dimension="0"/>
+    <map measureGroup="1" dimension="1"/>
+    <map measureGroup="2" dimension="2"/>
+    <map measureGroup="3" dimension="0"/>
+    <map measureGroup="3" dimension="1"/>
+    <map measureGroup="3" dimension="2"/>
+    <map measureGroup="3" dimension="4"/>
+    <map measureGroup="3" dimension="5"/>
+    <map measureGroup="3" dimension="6"/>
+    <map measureGroup="3" dimension="7"/>
+    <map measureGroup="3" dimension="8"/>
+    <map measureGroup="4" dimension="2"/>
+    <map measureGroup="4" dimension="4"/>
+    <map measureGroup="4" dimension="8"/>
+    <map measureGroup="4" dimension="9"/>
+    <map measureGroup="4" dimension="10"/>
+    <map measureGroup="5" dimension="0"/>
+    <map measureGroup="5" dimension="1"/>
+    <map measureGroup="5" dimension="7"/>
+    <map measureGroup="6" dimension="8"/>
+    <map measureGroup="6" dimension="10"/>
+    <map measureGroup="7" dimension="0"/>
+    <map measureGroup="7" dimension="1"/>
+    <map measureGroup="7" dimension="7"/>
+    <map measureGroup="7" dimension="10"/>
+    <map measureGroup="8" dimension="5"/>
+    <map measureGroup="8" dimension="6"/>
+    <map measureGroup="8" dimension="9"/>
+    <map measureGroup="8" dimension="10"/>
+  </maps>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition supportSubqueryNonVisual="1" supportSubqueryCalcMem="1" supportAddCalcMems="1"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="TablaDinámica1" cacheId="115" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="TablaDinámica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A3:G104" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
@@ -1274,12 +7021,23 @@
     <dataField name="Tendencia KPICrecimientoVentas" fld="8" baseField="0" baseItem="0"/>
   </dataFields>
   <conditionalFormats count="4">
-    <conditionalFormat scope="data" priority="5">
+    <conditionalFormat scope="data" priority="1">
       <pivotAreas count="1">
         <pivotArea outline="0" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="2"/>
+              <x v="5"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat scope="data" priority="2">
+      <pivotAreas count="1">
+        <pivotArea outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="4"/>
             </reference>
           </references>
         </pivotArea>
@@ -1296,23 +7054,12 @@
         </pivotArea>
       </pivotAreas>
     </conditionalFormat>
-    <conditionalFormat scope="data" priority="2">
+    <conditionalFormat scope="data" priority="5">
       <pivotAreas count="1">
         <pivotArea outline="0" fieldPosition="0">
           <references count="1">
             <reference field="4294967294" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </pivotAreas>
-    </conditionalFormat>
-    <conditionalFormat scope="data" priority="1">
-      <pivotAreas count="1">
-        <pivotArea outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="5"/>
+              <x v="2"/>
             </reference>
           </references>
         </pivotArea>
@@ -1426,6 +7173,580 @@
     <rowHierarchyUsage hierarchyUsage="35"/>
     <rowHierarchyUsage hierarchyUsage="57"/>
     <rowHierarchyUsage hierarchyUsage="3"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{5C12F4B9-54AB-4ACD-ACBB-EC41E08244EC}" name="TablaDinámica1" cacheId="83" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="2" fieldListSortAscending="1">
+  <location ref="A3:G8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="4">
+        <item x="0" e="0"/>
+        <item x="1" e="0"/>
+        <item x="2" e="0"/>
+        <item x="3" e="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="6"/>
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+    <i i="5">
+      <x v="5"/>
+    </i>
+  </colItems>
+  <dataFields count="6">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+    <dataField fld="1" baseField="0" baseItem="0"/>
+    <dataField fld="2" baseField="0" baseItem="0"/>
+    <dataField fld="3" baseField="0" baseItem="0"/>
+    <dataField fld="4" baseField="0" baseItem="0"/>
+    <dataField fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="12">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="1" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="100">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="2">
+    <rowHierarchyUsage hierarchyUsage="35"/>
+    <rowHierarchyUsage hierarchyUsage="37"/>
+  </rowHierarchiesUsage>
+  <colHierarchiesUsage count="1">
+    <colHierarchyUsage hierarchyUsage="-2"/>
+  </colHierarchiesUsage>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" calculatedMembersInFilters="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16 EnabledSubtotalsDefault="0" SubtotalsOnTopDefault="0"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{0015A913-9243-49EC-A9CA-BE683271F334}" name="TablaDinámica2" cacheId="100" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1" fieldListSortAscending="1">
+  <location ref="A1:E11" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" allDrilled="1" subtotalTop="0" showAll="0" dataSourceSort="1" defaultSubtotal="0" defaultAttributeDrillState="1">
+      <items count="9">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+  </colItems>
+  <dataFields count="4">
+    <dataField fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Objetivo KPICrecimientoModeloProducto" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Estado KPICrecimientoModeloProducto" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Tendencia KPICrecimientoModeloProducto" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <conditionalFormats count="2">
+    <conditionalFormat scope="data" priority="2">
+      <pivotAreas count="1">
+        <pivotArea outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat scope="data" priority="1">
+      <pivotAreas count="1">
+        <pivotArea outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotHierarchies count="100">
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragToData="1"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+    <pivotHierarchy dragToRow="0" dragToCol="0" dragToPage="0" dragOff="0"/>
+  </pivotHierarchies>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <rowHierarchiesUsage count="1">
+    <rowHierarchyUsage hierarchyUsage="1"/>
   </rowHierarchiesUsage>
   <colHierarchiesUsage count="1">
     <colHierarchyUsage hierarchyUsage="-2"/>
@@ -1737,11 +8058,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:G104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1793,514 +8114,484 @@
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6">
         <v>6048</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6">
         <v>6652.8</v>
       </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7">
         <v>6048</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7">
         <v>6652.8</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="3">
+      <c r="B8">
         <v>18144</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8">
         <v>19958.400000000001</v>
       </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9">
         <v>4032</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9">
         <v>4435.2000000000007</v>
       </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10">
         <v>2016</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10">
         <v>2217.6000000000004</v>
       </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="3">
+      <c r="B11">
         <v>16128</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11">
         <v>17740.800000000003</v>
       </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3">
+      <c r="D12">
         <v>-1</v>
       </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>-1</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B14">
         <v>6048</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14">
         <v>6652.8</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>1</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15">
         <v>6048</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15">
         <v>6652.8</v>
       </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>1</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="3">
+      <c r="B16">
         <v>18144</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16">
         <v>19958.400000000001</v>
       </c>
-      <c r="D16" s="3">
-        <v>0</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17">
         <v>4032</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17">
         <v>4435.2000000000007</v>
       </c>
-      <c r="D17" s="3">
-        <v>0</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18">
         <v>2016</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18">
         <v>2217.6000000000004</v>
       </c>
-      <c r="D18" s="3">
-        <v>0</v>
-      </c>
-      <c r="E18" s="3">
-        <v>1</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19">
         <v>16128</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19">
         <v>17740.800000000003</v>
       </c>
-      <c r="D19" s="3">
-        <v>0</v>
-      </c>
-      <c r="E19" s="3">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
+      <c r="D20">
         <v>-1</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
-      <c r="F20" s="3">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>-1</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22">
         <v>6048</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22">
         <v>6652.8</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23">
         <v>6048</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23">
         <v>6652.8</v>
       </c>
-      <c r="D23" s="3">
-        <v>0</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24">
         <v>18144</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24">
         <v>19958.400000000001</v>
       </c>
-      <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25">
         <v>4032</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25">
         <v>4435.2000000000007</v>
       </c>
-      <c r="D25" s="3">
-        <v>0</v>
-      </c>
-      <c r="E25" s="3">
-        <v>1</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26">
         <v>2016</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26">
         <v>2217.6000000000004</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27">
         <v>16128</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27">
         <v>17740.800000000003</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
-      </c>
-      <c r="E27" s="3">
-        <v>1</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3">
+      <c r="D28">
         <v>-1</v>
       </c>
-      <c r="E28" s="3">
-        <v>0</v>
-      </c>
-      <c r="F28" s="3">
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
         <v>-1</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28">
         <v>0</v>
       </c>
     </row>
@@ -2308,526 +8599,502 @@
       <c r="A29" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31">
         <v>38323</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31">
         <v>42155.3</v>
       </c>
-      <c r="D31" s="3">
-        <v>0</v>
-      </c>
-      <c r="E31" s="3">
-        <v>1</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="3">
+      <c r="B32">
         <v>20170</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32">
         <v>22187</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33">
         <v>38323</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33">
         <v>42155.3</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
-      </c>
-      <c r="E33" s="3">
-        <v>1</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="3">
+      <c r="B34">
         <v>4034</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34">
         <v>4437.4000000000005</v>
       </c>
-      <c r="D34" s="3">
-        <v>0</v>
-      </c>
-      <c r="E34" s="3">
-        <v>1</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0</v>
-      </c>
-      <c r="G34" s="3">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
+      <c r="A35" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="3">
+      <c r="B35">
         <v>4034</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35">
         <v>4437.4000000000005</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
-      </c>
-      <c r="E35" s="3">
-        <v>1</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
+      <c r="A36" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B36" s="3">
+      <c r="B36">
         <v>42357</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36">
         <v>46592.700000000004</v>
       </c>
-      <c r="D36" s="3">
-        <v>0</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0</v>
-      </c>
-      <c r="G36" s="3">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
+      <c r="A37" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B37" s="3">
+      <c r="B37">
         <v>24204</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37">
         <v>26624.400000000001</v>
       </c>
-      <c r="D37" s="3">
-        <v>0</v>
-      </c>
-      <c r="E37" s="3">
-        <v>1</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0</v>
-      </c>
-      <c r="G37" s="3">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
+      <c r="A39" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B39" s="3">
+      <c r="B39">
         <v>38323</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39">
         <v>42155.3</v>
       </c>
-      <c r="D39" s="3">
-        <v>0</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0</v>
-      </c>
-      <c r="G39" s="3">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="5" t="s">
+      <c r="A40" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40">
         <v>20170</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40">
         <v>22187</v>
       </c>
-      <c r="D40" s="3">
-        <v>0</v>
-      </c>
-      <c r="E40" s="3">
-        <v>1</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0</v>
-      </c>
-      <c r="G40" s="3">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B41">
         <v>38323</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41">
         <v>42155.3</v>
       </c>
-      <c r="D41" s="3">
-        <v>0</v>
-      </c>
-      <c r="E41" s="3">
-        <v>1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B42">
         <v>4034</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42">
         <v>4437.4000000000005</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>1</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B43" s="3">
+      <c r="B43">
         <v>4034</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43">
         <v>4437.4000000000005</v>
       </c>
-      <c r="D43" s="3">
-        <v>0</v>
-      </c>
-      <c r="E43" s="3">
-        <v>1</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="5" t="s">
+      <c r="A44" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44">
         <v>42357</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44">
         <v>46592.700000000004</v>
       </c>
-      <c r="D44" s="3">
-        <v>0</v>
-      </c>
-      <c r="E44" s="3">
-        <v>1</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="5" t="s">
+      <c r="A45" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="3">
+      <c r="B45">
         <v>24204</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45">
         <v>26624.400000000001</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
-      </c>
-      <c r="E45" s="3">
-        <v>1</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="3">
+      <c r="B47">
         <v>38323</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47">
         <v>42155.3</v>
       </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>1</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="5" t="s">
+      <c r="A48" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B48" s="3">
+      <c r="B48">
         <v>20170</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48">
         <v>22187</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="5" t="s">
+      <c r="A49" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49">
         <v>38323</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49">
         <v>42155.3</v>
       </c>
-      <c r="D49" s="3">
-        <v>0</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B50" s="3">
+      <c r="B50">
         <v>4034</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50">
         <v>4437.4000000000005</v>
       </c>
-      <c r="D50" s="3">
-        <v>0</v>
-      </c>
-      <c r="E50" s="3">
-        <v>1</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0</v>
-      </c>
-      <c r="G50" s="3">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="5" t="s">
+      <c r="A51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="3">
+      <c r="B51">
         <v>4034</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51">
         <v>4437.4000000000005</v>
       </c>
-      <c r="D51" s="3">
-        <v>0</v>
-      </c>
-      <c r="E51" s="3">
-        <v>1</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0</v>
-      </c>
-      <c r="G51" s="3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52">
         <v>42357</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52">
         <v>46592.700000000004</v>
       </c>
-      <c r="D52" s="3">
-        <v>0</v>
-      </c>
-      <c r="E52" s="3">
-        <v>1</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="5" t="s">
+      <c r="A53" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53">
         <v>24204</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53">
         <v>26624.400000000001</v>
       </c>
-      <c r="D53" s="3">
-        <v>0</v>
-      </c>
-      <c r="E53" s="3">
-        <v>1</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0</v>
-      </c>
-      <c r="G53" s="3">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
         <v>1</v>
       </c>
     </row>
@@ -2835,526 +9102,502 @@
       <c r="A54" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="5" t="s">
+      <c r="A56" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B56" s="3">
+      <c r="B56">
         <v>74666</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56">
         <v>82132.600000000006</v>
       </c>
-      <c r="D56" s="3">
-        <v>0</v>
-      </c>
-      <c r="E56" s="3">
-        <v>1</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0</v>
-      </c>
-      <c r="G56" s="3">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B57" s="3">
+      <c r="B57">
         <v>34306</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57">
         <v>37736.600000000006</v>
       </c>
-      <c r="D57" s="3">
-        <v>0</v>
-      </c>
-      <c r="E57" s="3">
-        <v>1</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58">
         <v>100900</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58">
         <v>110990.00000000001</v>
       </c>
-      <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>1</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="5" t="s">
+      <c r="A59" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B59">
         <v>12108</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59">
         <v>13318.800000000001</v>
       </c>
-      <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>1</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="5" t="s">
+      <c r="A60" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60">
         <v>42378</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60">
         <v>46615.8</v>
       </c>
-      <c r="D60" s="3">
-        <v>0</v>
-      </c>
-      <c r="E60" s="3">
-        <v>1</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="5" t="s">
+      <c r="A61" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61">
         <v>62558</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61">
         <v>68813.8</v>
       </c>
-      <c r="D61" s="3">
-        <v>0</v>
-      </c>
-      <c r="E61" s="3">
-        <v>1</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B62" s="3">
+      <c r="B62">
         <v>84756</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62">
         <v>93231.6</v>
       </c>
-      <c r="D62" s="3">
-        <v>0</v>
-      </c>
-      <c r="E62" s="3">
-        <v>1</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64">
         <v>74666</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64">
         <v>82132.600000000006</v>
       </c>
-      <c r="D64" s="3">
-        <v>0</v>
-      </c>
-      <c r="E64" s="3">
-        <v>1</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0</v>
-      </c>
-      <c r="G64" s="3">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B65" s="3">
+      <c r="B65">
         <v>34306</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65">
         <v>37736.600000000006</v>
       </c>
-      <c r="D65" s="3">
-        <v>0</v>
-      </c>
-      <c r="E65" s="3">
-        <v>1</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0</v>
-      </c>
-      <c r="G65" s="3">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="5" t="s">
+      <c r="A66" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B66">
         <v>100900</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66">
         <v>110990.00000000001</v>
       </c>
-      <c r="D66" s="3">
-        <v>0</v>
-      </c>
-      <c r="E66" s="3">
-        <v>1</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="5" t="s">
+      <c r="A67" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67">
         <v>12108</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67">
         <v>13318.800000000001</v>
       </c>
-      <c r="D67" s="3">
-        <v>0</v>
-      </c>
-      <c r="E67" s="3">
-        <v>1</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0</v>
-      </c>
-      <c r="G67" s="3">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
+      <c r="A68" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B68">
         <v>42378</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68">
         <v>46615.8</v>
       </c>
-      <c r="D68" s="3">
-        <v>0</v>
-      </c>
-      <c r="E68" s="3">
-        <v>1</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0</v>
-      </c>
-      <c r="G68" s="3">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="5" t="s">
+      <c r="A69" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B69">
         <v>62558</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69">
         <v>68813.8</v>
       </c>
-      <c r="D69" s="3">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3">
-        <v>1</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0</v>
-      </c>
-      <c r="G69" s="3">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="5" t="s">
+      <c r="A70" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70">
         <v>84756</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70">
         <v>93231.6</v>
       </c>
-      <c r="D70" s="3">
-        <v>0</v>
-      </c>
-      <c r="E70" s="3">
-        <v>1</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0</v>
-      </c>
-      <c r="G70" s="3">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" s="3"/>
-      <c r="G71" s="3"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="5" t="s">
+      <c r="A72" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B72" s="3">
+      <c r="B72">
         <v>74666</v>
       </c>
-      <c r="C72" s="3">
+      <c r="C72">
         <v>82132.600000000006</v>
       </c>
-      <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>1</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B73" s="3">
+      <c r="B73">
         <v>34306</v>
       </c>
-      <c r="C73" s="3">
+      <c r="C73">
         <v>37736.600000000006</v>
       </c>
-      <c r="D73" s="3">
-        <v>0</v>
-      </c>
-      <c r="E73" s="3">
-        <v>1</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0</v>
-      </c>
-      <c r="G73" s="3">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="5" t="s">
+      <c r="A74" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B74">
         <v>100900</v>
       </c>
-      <c r="C74" s="3">
+      <c r="C74">
         <v>110990.00000000001</v>
       </c>
-      <c r="D74" s="3">
-        <v>0</v>
-      </c>
-      <c r="E74" s="3">
-        <v>1</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0</v>
-      </c>
-      <c r="G74" s="3">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B75" s="3">
+      <c r="B75">
         <v>12108</v>
       </c>
-      <c r="C75" s="3">
+      <c r="C75">
         <v>13318.800000000001</v>
       </c>
-      <c r="D75" s="3">
-        <v>0</v>
-      </c>
-      <c r="E75" s="3">
-        <v>1</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0</v>
-      </c>
-      <c r="G75" s="3">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="5" t="s">
+      <c r="A76" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B76">
         <v>42378</v>
       </c>
-      <c r="C76" s="3">
+      <c r="C76">
         <v>46615.8</v>
       </c>
-      <c r="D76" s="3">
-        <v>0</v>
-      </c>
-      <c r="E76" s="3">
-        <v>1</v>
-      </c>
-      <c r="F76" s="3">
-        <v>0</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B77">
         <v>62558</v>
       </c>
-      <c r="C77" s="3">
+      <c r="C77">
         <v>68813.8</v>
       </c>
-      <c r="D77" s="3">
-        <v>0</v>
-      </c>
-      <c r="E77" s="3">
-        <v>1</v>
-      </c>
-      <c r="F77" s="3">
-        <v>0</v>
-      </c>
-      <c r="G77" s="3">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B78">
         <v>84756</v>
       </c>
-      <c r="C78" s="3">
+      <c r="C78">
         <v>93231.6</v>
       </c>
-      <c r="D78" s="3">
-        <v>0</v>
-      </c>
-      <c r="E78" s="3">
-        <v>1</v>
-      </c>
-      <c r="F78" s="3">
-        <v>0</v>
-      </c>
-      <c r="G78" s="3">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
         <v>1</v>
       </c>
     </row>
@@ -3362,454 +9605,394 @@
       <c r="A79" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
-      <c r="G80" s="3"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
+      <c r="A81" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3">
+      <c r="D81">
         <v>-1</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
         <v>-1</v>
       </c>
-      <c r="G81" s="3">
+      <c r="G81">
         <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3">
+      <c r="D82">
         <v>-1</v>
       </c>
-      <c r="E82" s="3">
-        <v>0</v>
-      </c>
-      <c r="F82" s="3">
+      <c r="E82">
+        <v>0</v>
+      </c>
+      <c r="F82">
         <v>-1</v>
       </c>
-      <c r="G82" s="3">
+      <c r="G82">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="5" t="s">
+      <c r="A83" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3">
+      <c r="D83">
         <v>-1</v>
       </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
         <v>-1</v>
       </c>
-      <c r="G83" s="3">
+      <c r="G83">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3">
+      <c r="D84">
         <v>-1</v>
       </c>
-      <c r="E84" s="3">
-        <v>0</v>
-      </c>
-      <c r="F84" s="3">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
         <v>-1</v>
       </c>
-      <c r="G84" s="3">
+      <c r="G84">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3">
+      <c r="D85">
         <v>-1</v>
       </c>
-      <c r="E85" s="3">
-        <v>0</v>
-      </c>
-      <c r="F85" s="3">
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
         <v>-1</v>
       </c>
-      <c r="G85" s="3">
+      <c r="G85">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="5" t="s">
+      <c r="A86" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3">
+      <c r="D86">
         <v>-1</v>
       </c>
-      <c r="E86" s="3">
-        <v>0</v>
-      </c>
-      <c r="F86" s="3">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
         <v>-1</v>
       </c>
-      <c r="G86" s="3">
+      <c r="G86">
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="5" t="s">
+      <c r="A87" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B87">
         <v>12114</v>
       </c>
-      <c r="C87" s="3">
+      <c r="C87">
         <v>13325.400000000001</v>
       </c>
-      <c r="D87" s="3">
+      <c r="D87">
         <v>-1</v>
       </c>
-      <c r="E87" s="3">
-        <v>0</v>
-      </c>
-      <c r="F87" s="3">
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
         <v>-1</v>
       </c>
-      <c r="G87" s="3">
+      <c r="G87">
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="3"/>
-      <c r="G88" s="3"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="5" t="s">
+      <c r="A89" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3">
+      <c r="D89">
         <v>-1</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
         <v>-1</v>
       </c>
-      <c r="G89" s="3">
+      <c r="G89">
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3">
+      <c r="D90">
         <v>-1</v>
       </c>
-      <c r="E90" s="3">
-        <v>0</v>
-      </c>
-      <c r="F90" s="3">
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
         <v>-1</v>
       </c>
-      <c r="G90" s="3">
+      <c r="G90">
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="5" t="s">
+      <c r="A91" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3">
+      <c r="D91">
         <v>-1</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
         <v>-1</v>
       </c>
-      <c r="G91" s="3">
+      <c r="G91">
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3">
+      <c r="D92">
         <v>-1</v>
       </c>
-      <c r="E92" s="3">
-        <v>0</v>
-      </c>
-      <c r="F92" s="3">
+      <c r="E92">
+        <v>0</v>
+      </c>
+      <c r="F92">
         <v>-1</v>
       </c>
-      <c r="G92" s="3">
+      <c r="G92">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="5" t="s">
+      <c r="A93" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3">
+      <c r="D93">
         <v>-1</v>
       </c>
-      <c r="E93" s="3">
-        <v>0</v>
-      </c>
-      <c r="F93" s="3">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
         <v>-1</v>
       </c>
-      <c r="G93" s="3">
+      <c r="G93">
         <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="5" t="s">
+      <c r="A94" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3">
+      <c r="D94">
         <v>-1</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
         <v>-1</v>
       </c>
-      <c r="G94" s="3">
+      <c r="G94">
         <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="5" t="s">
+      <c r="A95" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B95">
         <v>12114</v>
       </c>
-      <c r="C95" s="3">
+      <c r="C95">
         <v>13325.400000000001</v>
       </c>
-      <c r="D95" s="3">
+      <c r="D95">
         <v>-1</v>
       </c>
-      <c r="E95" s="3">
-        <v>0</v>
-      </c>
-      <c r="F95" s="3">
+      <c r="E95">
+        <v>0</v>
+      </c>
+      <c r="F95">
         <v>-1</v>
       </c>
-      <c r="G95" s="3">
+      <c r="G95">
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="4" t="s">
+      <c r="A96" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3">
+      <c r="D97">
         <v>-1</v>
       </c>
-      <c r="E97" s="3">
-        <v>0</v>
-      </c>
-      <c r="F97" s="3">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
         <v>-1</v>
       </c>
-      <c r="G97" s="3">
+      <c r="G97">
         <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="5" t="s">
+      <c r="A98" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3">
+      <c r="D98">
         <v>-1</v>
       </c>
-      <c r="E98" s="3">
-        <v>0</v>
-      </c>
-      <c r="F98" s="3">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
         <v>-1</v>
       </c>
-      <c r="G98" s="3">
+      <c r="G98">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="5" t="s">
+      <c r="A99" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3">
+      <c r="D99">
         <v>-1</v>
       </c>
-      <c r="E99" s="3">
-        <v>0</v>
-      </c>
-      <c r="F99" s="3">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
         <v>-1</v>
       </c>
-      <c r="G99" s="3">
+      <c r="G99">
         <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="5" t="s">
+      <c r="A100" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3">
+      <c r="D100">
         <v>-1</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
         <v>-1</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100">
         <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="5" t="s">
+      <c r="A101" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3">
+      <c r="D101">
         <v>-1</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
+      <c r="E101">
+        <v>0</v>
+      </c>
+      <c r="F101">
         <v>-1</v>
       </c>
-      <c r="G101" s="3">
+      <c r="G101">
         <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="5" t="s">
+      <c r="A102" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3">
+      <c r="D102">
         <v>-1</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
         <v>-1</v>
       </c>
-      <c r="G102" s="3">
+      <c r="G102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="5" t="s">
+      <c r="A103" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103">
         <v>12114</v>
       </c>
-      <c r="C103" s="3">
+      <c r="C103">
         <v>13325.400000000001</v>
       </c>
-      <c r="D103" s="3">
+      <c r="D103">
         <v>-1</v>
       </c>
-      <c r="E103" s="3">
-        <v>0</v>
-      </c>
-      <c r="F103" s="3">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
         <v>-1</v>
       </c>
-      <c r="G103" s="3">
+      <c r="G103">
         <v>0</v>
       </c>
     </row>
@@ -3817,22 +10000,22 @@
       <c r="A104" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104">
         <v>647647</v>
       </c>
-      <c r="C104" s="3">
+      <c r="C104">
         <v>712411.70000000007</v>
       </c>
-      <c r="D104" s="3">
-        <v>0</v>
-      </c>
-      <c r="E104" s="3">
-        <v>1</v>
-      </c>
-      <c r="F104" s="3">
-        <v>0</v>
-      </c>
-      <c r="G104" s="3">
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>1</v>
       </c>
     </row>
@@ -3879,4 +10062,391 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAFD9BB5-1133-4841-9C41-86DCCD0C7D53}">
+  <dimension ref="A3:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="5">
+        <v>2379763.3100000331</v>
+      </c>
+      <c r="C4" s="5">
+        <v>243.24999999999486</v>
+      </c>
+      <c r="D4" s="5">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.98928978361297637</v>
+      </c>
+      <c r="F4" s="5">
+        <v>25487.780000000021</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>2367741.8300000336</v>
+      </c>
+      <c r="C5" s="5">
+        <v>192.50999999999658</v>
+      </c>
+      <c r="D5" s="5">
+        <v>85</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.95405151498294949</v>
+      </c>
+      <c r="F5" s="5">
+        <v>108794.15000000027</v>
+      </c>
+      <c r="G5" s="5">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5">
+        <v>978901.42999999563</v>
+      </c>
+      <c r="C6" s="5">
+        <v>61.810000000000173</v>
+      </c>
+      <c r="D6" s="5">
+        <v>204</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.65437994099160701</v>
+      </c>
+      <c r="F6" s="5">
+        <v>338327.96999999875</v>
+      </c>
+      <c r="G6" s="5">
+        <v>8678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="F7" s="5">
+        <v>15499.939999999999</v>
+      </c>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="5">
+        <v>5726406.5700000627</v>
+      </c>
+      <c r="C8" s="5">
+        <v>497.56999999999164</v>
+      </c>
+      <c r="D8" s="5">
+        <v>321</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.91476158145019837</v>
+      </c>
+      <c r="F8" s="5">
+        <v>488109.83999999904</v>
+      </c>
+      <c r="G8" s="5">
+        <v>13511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5744C4-1293-4955-BCC5-B8FE144567E8}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4998</v>
+      </c>
+      <c r="C2" s="5">
+        <v>261892.40000000002</v>
+      </c>
+      <c r="D2" s="5">
+        <v>0</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="5">
+        <v>454</v>
+      </c>
+      <c r="C3" s="5">
+        <v>22187</v>
+      </c>
+      <c r="D3" s="5">
+        <v>0</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="5">
+        <v>108</v>
+      </c>
+      <c r="C4" s="5">
+        <v>6657.2000000000007</v>
+      </c>
+      <c r="D4" s="5">
+        <v>0</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="5">
+        <v>104</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6652.8</v>
+      </c>
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="5">
+        <v>45</v>
+      </c>
+      <c r="C6" s="5">
+        <v>2217.6000000000004</v>
+      </c>
+      <c r="D6" s="5">
+        <v>0</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5">
+        <v>136</v>
+      </c>
+      <c r="C7" s="5">
+        <v>6659.4000000000005</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1042</v>
+      </c>
+      <c r="C8" s="5">
+        <v>51030.100000000006</v>
+      </c>
+      <c r="D8" s="5">
+        <v>0</v>
+      </c>
+      <c r="E8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1105</v>
+      </c>
+      <c r="C9" s="5">
+        <v>55477.4</v>
+      </c>
+      <c r="D9" s="5">
+        <v>0</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5">
+        <v>5519</v>
+      </c>
+      <c r="C10" s="5">
+        <v>299637.80000000005</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5">
+        <v>13511</v>
+      </c>
+      <c r="C11" s="5">
+        <v>712411.70000000007</v>
+      </c>
+      <c r="D11" s="5">
+        <v>0</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting pivot="1" sqref="D2:D11">
+    <cfRule type="iconSet" priority="2">
+      <iconSet iconSet="3TrafficLights2" showValue="0">
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="-0.5"/>
+        <cfvo type="num" val="0.5"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="E2:E11">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Arrows" showValue="0">
+        <cfvo type="num" val="-1"/>
+        <cfvo type="num" val="-0.5"/>
+        <cfvo type="num" val="-0.01"/>
+        <cfvo type="num" val="0.01"/>
+        <cfvo type="num" val="0.5"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>